--- a/biology/Zoologie/Cingulopsidae/Cingulopsidae.xlsx
+++ b/biology/Zoologie/Cingulopsidae/Cingulopsidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cingulopsidae sont une famille de mollusques gastéropodes de l'ordre  des Littorinimorpha.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Cingulopsidae a été créée en 1958 par Vera Fretter et A. M. Patil (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Cingulopsidae a été créée en 1958 par Vera Fretter et A. M. Patil (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (10 juillet 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (10 juillet 2021) :
 genre † Dieretostoma Cossmann, 1888
 genre Eatonina Thiele, 1912
 genre Pickenia Ponder, 1983
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Vera Fretter et A. M. Patil, « A Revision of the Systematic Position of the Prosobranch Gastropod Cingulopsis (= Cingula) fulgida (J. Adams) », Proceedings of the Malacological Society of London, Londres, Malacological Society of London et inconnu, vol. 33, no 3,‎ 1er décembre 1958, p. 114-126 (ISSN 0025-1194, OCLC 1909246, DOI 10.1093/OXFORDJOURNALS.MOLLUS.A064809, lire en ligne)</t>
         </is>
